--- a/outcome/appendix/data/PHSMs/Typhoid fever and paratyphoid fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Typhoid fever and paratyphoid fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">伤寒+副伤寒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +439,16 @@
         <v>799.546388894888</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>513</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56.0523241782632</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +471,16 @@
         <v>698.019490898613</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>364</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.1002291878822</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +503,16 @@
         <v>892.306834956481</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>360</v>
+      </c>
+      <c r="I4" t="n">
+        <v>218.672158017038</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +535,16 @@
         <v>1079.79021038999</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>415</v>
+      </c>
+      <c r="I5" t="n">
+        <v>337.401091362163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +567,16 @@
         <v>1234.81253816835</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>607</v>
+      </c>
+      <c r="I6" t="n">
+        <v>293.105309966471</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +599,16 @@
         <v>1351.0235287349</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>832</v>
+      </c>
+      <c r="I7" t="n">
+        <v>180.362003614199</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +631,16 @@
         <v>1465.04019063191</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>830</v>
+      </c>
+      <c r="I8" t="n">
+        <v>294.225153418204</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +663,16 @@
         <v>1492.6280455642</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>863</v>
+      </c>
+      <c r="I9" t="n">
+        <v>287.635363539958</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +695,16 @@
         <v>1299.84019209294</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>848</v>
+      </c>
+      <c r="I10" t="n">
+        <v>109.202125200154</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +727,16 @@
         <v>1203.40976809539</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>689</v>
+      </c>
+      <c r="I11" t="n">
+        <v>171.417660455788</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +759,16 @@
         <v>994.749959334008</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>517</v>
+      </c>
+      <c r="I12" t="n">
+        <v>134.563646382932</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +791,16 @@
         <v>883.721352577893</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>483</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57.4287266000285</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +823,16 @@
         <v>889.388356482626</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>362</v>
+      </c>
+      <c r="I14" t="n">
+        <v>173.401792610422</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +855,16 @@
         <v>734.895344626522</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>327</v>
+      </c>
+      <c r="I15" t="n">
+        <v>48.1670033711526</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +887,16 @@
         <v>903.891762571878</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>487</v>
+      </c>
+      <c r="I16" t="n">
+        <v>54.0467411757689</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +919,16 @@
         <v>1078.06766091833</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>522</v>
+      </c>
+      <c r="I17" t="n">
+        <v>191.521231239702</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +951,16 @@
         <v>1225.77356729558</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>649</v>
+      </c>
+      <c r="I18" t="n">
+        <v>211.2955146754</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +983,16 @@
         <v>1337.85183751352</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>829</v>
+      </c>
+      <c r="I19" t="n">
+        <v>142.862835251594</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1015,16 @@
         <v>1449.48441528651</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>939</v>
+      </c>
+      <c r="I20" t="n">
+        <v>144.214943804773</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1047,16 @@
         <v>1475.66979175762</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>913</v>
+      </c>
+      <c r="I21" t="n">
+        <v>196.246312380735</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1079,16 @@
         <v>1282.04026325639</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>786</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129.532233861032</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1111,16 @@
         <v>1185.09396059608</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>655</v>
+      </c>
+      <c r="I23" t="n">
+        <v>163.539578627736</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1143,16 @@
         <v>976.110894811124</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>524</v>
+      </c>
+      <c r="I24" t="n">
+        <v>85.5312302295828</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1175,16 @@
         <v>864.875116595895</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>487</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.2819003980385</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1207,16 @@
         <v>868.905827650536</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>405</v>
+      </c>
+      <c r="I26" t="n">
+        <v>88.1701527468914</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1239,16 @@
         <v>713.539208781614</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>280</v>
+      </c>
+      <c r="I27" t="n">
+        <v>52.8724900339239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1271,16 @@
         <v>882.055161758196</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>408</v>
+      </c>
+      <c r="I28" t="n">
+        <v>90.7056189123009</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1303,16 @@
         <v>1055.96146645456</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>250.145557171197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1335,16 @@
         <v>1203.51359154201</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>566</v>
+      </c>
+      <c r="I30" t="n">
+        <v>251.894226903092</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1367,16 @@
         <v>1315.50273836623</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>700</v>
+      </c>
+      <c r="I31" t="n">
+        <v>229.442559706525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1399,16 @@
         <v>1427.08278777291</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>741</v>
+      </c>
+      <c r="I32" t="n">
+        <v>299.78059237606</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1431,16 @@
         <v>1453.23662672047</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>730</v>
+      </c>
+      <c r="I33" t="n">
+        <v>336.801526315856</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1463,16 @@
         <v>1259.58777693002</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>631</v>
+      </c>
+      <c r="I34" t="n">
+        <v>242.079712464243</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1495,16 @@
         <v>1162.62938073773</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>494</v>
+      </c>
+      <c r="I35" t="n">
+        <v>282.081322928494</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1527,16 @@
         <v>953.638579797596</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>419</v>
+      </c>
+      <c r="I36" t="n">
+        <v>148.068723617129</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
